--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -16,8 +16,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Luke Scime</author>
+  </authors>
+  <commentList>
+    <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Luke Scime:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is currently the intake and currently set to CAN ID 5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Luke Scime:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+or ultrasonic range finder if lexan is transparent
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
   <si>
     <t>PDP</t>
   </si>
@@ -337,15 +397,6 @@
     <t>LEDs w/ fuse</t>
   </si>
   <si>
-    <t>Winch</t>
-  </si>
-  <si>
-    <t>Level Climb</t>
-  </si>
-  <si>
-    <t>Intake 0/1</t>
-  </si>
-  <si>
     <t>Magazine/Spinner</t>
   </si>
   <si>
@@ -355,9 +406,6 @@
     <t>Intake Deploy</t>
   </si>
   <si>
-    <t>Clutch 0</t>
-  </si>
-  <si>
     <t>Hook Deploy</t>
   </si>
   <si>
@@ -373,18 +421,9 @@
     <t>LimeLight Tilt</t>
   </si>
   <si>
-    <t>?/IMU 1</t>
-  </si>
-  <si>
     <t>Beam Break</t>
   </si>
   <si>
-    <t>Index 0</t>
-  </si>
-  <si>
-    <t>Index 1</t>
-  </si>
-  <si>
     <t>RSL Light</t>
   </si>
   <si>
@@ -511,14 +550,65 @@
     <t>Toggle Intake</t>
   </si>
   <si>
-    <t>Intake/IMU 0</t>
+    <t>Intake/Level Climb</t>
+  </si>
+  <si>
+    <t>Boost/Winch</t>
+  </si>
+  <si>
+    <t>Turret</t>
+  </si>
+  <si>
+    <t>Spark Max - Neo</t>
+  </si>
+  <si>
+    <t>Victor SPX - Bag/Bag</t>
+  </si>
+  <si>
+    <t>Talon SRX - ?</t>
+  </si>
+  <si>
+    <t>Winch PTO</t>
+  </si>
+  <si>
+    <t>Talon FX - Falcon 500</t>
+  </si>
+  <si>
+    <t>Cowl 0</t>
+  </si>
+  <si>
+    <t>Cowl 1</t>
+  </si>
+  <si>
+    <t>Boost Index</t>
+  </si>
+  <si>
+    <t>Turret/IMU 0</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Talon FX</t>
+  </si>
+  <si>
+    <t>Talon SPX</t>
+  </si>
+  <si>
+    <t>PCM 2</t>
+  </si>
+  <si>
+    <t>PCM 3</t>
+  </si>
+  <si>
+    <t>IR Range Finder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +616,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +667,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -741,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -815,9 +924,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,6 +940,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFC9FFC9"/>
     </mruColors>
   </colors>
@@ -1127,14 +1242,14 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.109375" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
@@ -1201,7 +1316,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>6</v>
@@ -1218,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1232,7 +1347,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>7</v>
@@ -1249,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1263,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>8</v>
@@ -1284,10 +1399,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1298,7 +1413,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>9</v>
@@ -1319,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1333,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>10</v>
@@ -1350,10 +1465,10 @@
         <v>4</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1364,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>11</v>
@@ -1381,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1395,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>12</v>
@@ -1404,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>19</v>
@@ -1416,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1545,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>13</v>
@@ -1447,10 +1562,10 @@
         <v>7</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1512,9 +1627,11 @@
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="4">
@@ -1523,8 +1640,12 @@
       <c r="K13" s="29">
         <v>0</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1534,9 +1655,11 @@
       <c r="B14" s="5">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4">
@@ -1545,8 +1668,12 @@
       <c r="K14" s="29">
         <v>1</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1556,9 +1683,11 @@
       <c r="B15" s="5">
         <v>40</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="4">
@@ -1578,9 +1707,11 @@
       <c r="B16" s="5">
         <v>40</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="4">
@@ -1594,15 +1725,17 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="48">
+      <c r="A17" s="51">
         <v>14</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="29">
         <v>40</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50" t="s">
-        <v>161</v>
+      <c r="C17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1614,15 +1747,17 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="48">
+      <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="29">
         <v>40</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50" t="s">
-        <v>162</v>
+      <c r="C18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -1652,8 +1787,12 @@
       <c r="K19" s="5">
         <v>6</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -1674,8 +1813,12 @@
       <c r="K20" s="5">
         <v>7</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
@@ -1715,11 +1858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,10 +1940,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="33">
@@ -1831,11 +1974,11 @@
       <c r="A4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>119</v>
+      <c r="B4" t="s">
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="33">
@@ -1866,12 +2009,8 @@
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="33">
         <v>2</v>
@@ -1900,14 +2039,14 @@
       <c r="B6" s="21"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="33">
-        <v>5</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>164</v>
+      <c r="E6" s="52">
+        <v>3</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>172</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>40</v>
@@ -1927,14 +2066,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>118</v>
+      <c r="E7" s="52">
+        <v>4</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>173</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>41</v>
@@ -2046,14 +2185,14 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="33">
-        <v>20</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>10</v>
+      <c r="E12" s="48">
+        <v>14</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>168</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>46</v>
@@ -2072,14 +2211,14 @@
         <v>75</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
-        <v>21</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>11</v>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>82</v>
@@ -2098,14 +2237,14 @@
         <v>76</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="33">
-        <v>22</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>12</v>
+      <c r="E14" s="4">
+        <v>16</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>83</v>
@@ -2124,14 +2263,14 @@
         <v>77</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
-        <v>23</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>13</v>
+      <c r="E15" s="51">
+        <v>17</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>84</v>
@@ -2150,14 +2289,14 @@
         <v>78</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="48">
-        <v>7</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>161</v>
+      <c r="E16" s="51">
+        <v>18</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>85</v>
@@ -2170,20 +2309,20 @@
         <v>51</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="48">
-        <v>8</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>162</v>
+      <c r="E17" s="51">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>86</v>
@@ -2202,9 +2341,15 @@
         <v>80</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="33">
+        <v>20</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="I18" s="19" t="s">
         <v>87</v>
       </c>
@@ -2218,9 +2363,15 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="33">
+        <v>21</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>11</v>
+      </c>
       <c r="I19" s="19" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2379,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2238,14 +2389,20 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="33">
+        <v>22</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="19" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
@@ -2258,14 +2415,20 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="33">
+        <v>23</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="19" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>91</v>
@@ -2285,10 +2448,10 @@
         <v>50</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2432,7 +2595,7 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
@@ -2441,13 +2604,13 @@
         <v>69</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
@@ -2458,7 +2621,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
@@ -2469,7 +2632,7 @@
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
@@ -2523,8 +2686,29 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2544,15 +2728,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2566,7 +2750,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2574,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2582,160 +2766,160 @@
         <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>152</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B27" s="46"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B28" s="46"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B29" s="44"/>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B30" s="13"/>
     </row>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -592,9 +592,6 @@
     <t>Talon FX</t>
   </si>
   <si>
-    <t>Talon SPX</t>
-  </si>
-  <si>
     <t>PCM 2</t>
   </si>
   <si>
@@ -602,6 +599,9 @@
   </si>
   <si>
     <t>IR Range Finder</t>
+  </si>
+  <si>
+    <t>Victor SPX</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1862,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>40</v>
@@ -2073,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>41</v>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="51">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>170</v>
@@ -2293,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>106</v>
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>157</v>
@@ -2402,7 +2402,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
@@ -2428,7 +2428,7 @@
         <v>49</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>91</v>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -1862,7 +1862,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="51">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>170</v>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -22,31 +22,6 @@
     <author>Luke Scime</author>
   </authors>
   <commentList>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Luke Scime:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This is currently the intake and currently set to CAN ID 5
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J20" authorId="0">
       <text>
         <r>
@@ -77,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
   <si>
     <t>PDP</t>
   </si>
@@ -451,9 +426,6 @@
     <t xml:space="preserve">Rotate </t>
   </si>
   <si>
-    <t>Right Joystck Y</t>
-  </si>
-  <si>
     <t>Left Trigger</t>
   </si>
   <si>
@@ -550,9 +522,6 @@
     <t>Toggle Intake</t>
   </si>
   <si>
-    <t>Intake/Level Climb</t>
-  </si>
-  <si>
     <t>Boost/Winch</t>
   </si>
   <si>
@@ -583,9 +552,6 @@
     <t>Boost Index</t>
   </si>
   <si>
-    <t>Turret/IMU 0</t>
-  </si>
-  <si>
     <t>Boost</t>
   </si>
   <si>
@@ -602,6 +568,33 @@
   </si>
   <si>
     <t>Victor SPX</t>
+  </si>
+  <si>
+    <t>Turret/Winch/IMU 0</t>
+  </si>
+  <si>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>Victor SPX - ?</t>
+  </si>
+  <si>
+    <t>HP Signal</t>
+  </si>
+  <si>
+    <t>Emergency Boost</t>
+  </si>
+  <si>
+    <t>Right Joystick Y</t>
+  </si>
+  <si>
+    <t>Auto-Targeting</t>
+  </si>
+  <si>
+    <t>Fire Control Override</t>
+  </si>
+  <si>
+    <t>Defensive Pivot</t>
   </si>
 </sst>
 </file>
@@ -630,7 +623,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,12 +656,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -850,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -914,24 +901,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,8 +922,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC9FFC9"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFC9FFC9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1242,7 +1224,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1298,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>6</v>
@@ -1347,7 +1329,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>7</v>
@@ -1367,7 +1349,7 @@
         <v>107</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1378,7 +1360,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>8</v>
@@ -1413,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>9</v>
@@ -1448,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>10</v>
@@ -1479,7 +1461,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>11</v>
@@ -1510,7 +1492,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>12</v>
@@ -1534,7 +1516,7 @@
         <v>110</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1545,7 +1527,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>13</v>
@@ -1628,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>106</v>
@@ -1644,7 +1626,7 @@
         <v>107</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N13" s="6"/>
     </row>
@@ -1656,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4">
@@ -1672,7 +1654,7 @@
         <v>107</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N14" s="6"/>
     </row>
@@ -1684,10 +1666,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="4">
@@ -1708,10 +1690,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="4">
@@ -1725,17 +1707,17 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+      <c r="A17" s="46">
         <v>14</v>
       </c>
       <c r="B17" s="29">
         <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1747,17 +1729,17 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="51">
+      <c r="A18" s="46">
         <v>15</v>
       </c>
       <c r="B18" s="29">
         <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -1791,7 +1773,7 @@
         <v>110</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1817,7 +1799,7 @@
         <v>110</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1861,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1853,8 @@
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.77734375" customWidth="1"/>
-    <col min="5" max="7" width="16.88671875" customWidth="1"/>
+    <col min="5" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.21875" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -1943,7 +1926,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="33">
@@ -2039,14 +2022,14 @@
       <c r="B6" s="21"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="52">
+      <c r="E6" s="47">
         <v>3</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>171</v>
+      <c r="G6" s="49" t="s">
+        <v>168</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>40</v>
@@ -2066,14 +2049,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="52">
+      <c r="E7" s="47">
         <v>4</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>172</v>
+      <c r="G7" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>41</v>
@@ -2185,14 +2168,14 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <v>14</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>168</v>
+      <c r="G12" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>46</v>
@@ -2215,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>82</v>
@@ -2241,10 +2224,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>83</v>
@@ -2263,14 +2246,14 @@
         <v>77</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="51">
+      <c r="E15" s="46">
         <v>17</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>84</v>
@@ -2289,11 +2272,11 @@
         <v>78</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="51">
+      <c r="E16" s="46">
         <v>18</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>106</v>
@@ -2315,14 +2298,14 @@
         <v>113</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="51">
+      <c r="E17" s="46">
         <v>19</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>86</v>
@@ -2379,7 +2362,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2402,7 +2385,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
@@ -2428,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>91</v>
@@ -2448,10 +2431,10 @@
         <v>50</v>
       </c>
       <c r="J22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2716,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2728,12 +2711,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>117</v>
@@ -2743,30 +2726,32 @@
       <c r="A3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2795,133 +2780,145 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="B13" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="36" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="46"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="46"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="B29" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="44"/>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="40" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -543,18 +543,9 @@
     <t>Talon FX - Falcon 500</t>
   </si>
   <si>
-    <t>Cowl 0</t>
-  </si>
-  <si>
-    <t>Cowl 1</t>
-  </si>
-  <si>
     <t>Boost Index</t>
   </si>
   <si>
-    <t>Boost</t>
-  </si>
-  <si>
     <t>Talon FX</t>
   </si>
   <si>
@@ -595,6 +586,15 @@
   </si>
   <si>
     <t>Defensive Pivot</t>
+  </si>
+  <si>
+    <t>Kicker</t>
+  </si>
+  <si>
+    <t>Cowl Piston</t>
+  </si>
+  <si>
+    <t>Cowl Pin</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,12 +1622,8 @@
       <c r="K13" s="29">
         <v>0</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1638,10 +1634,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4">
@@ -1650,12 +1646,8 @@
       <c r="K14" s="29">
         <v>1</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1678,8 +1670,12 @@
       <c r="K15" s="29">
         <v>2</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1702,8 +1698,12 @@
       <c r="K16" s="5">
         <v>3</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1725,8 +1725,12 @@
       <c r="K17" s="5">
         <v>4</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="46">
@@ -1747,8 +1751,12 @@
       <c r="K18" s="5">
         <v>5</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
@@ -1769,12 +1777,8 @@
       <c r="K19" s="5">
         <v>6</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -1795,12 +1799,8 @@
       <c r="K20" s="5">
         <v>7</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1926,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="33">
@@ -2029,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>40</v>
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>41</v>
@@ -2175,7 +2175,7 @@
         <v>104</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>46</v>
@@ -2195,13 +2195,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>82</v>
@@ -2224,7 +2224,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>153</v>
@@ -2250,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>154</v>
@@ -2276,7 +2276,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>106</v>
@@ -2302,10 +2302,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>86</v>
@@ -2385,7 +2385,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
@@ -2411,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>91</v>
@@ -2699,7 +2699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2727,7 +2727,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2780,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10" s="11"/>
     </row>
@@ -2789,7 +2789,7 @@
         <v>145</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
         <v>146</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>124</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2917,7 +2917,7 @@
         <v>142</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="183">
   <si>
     <t>PDP</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>Cowl Pin</t>
+  </si>
+  <si>
+    <t>Normal Targeting</t>
+  </si>
+  <si>
+    <t>INNER Targeting</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -2699,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,10 +2729,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="36" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2743,7 +2749,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,17 +2823,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="36" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>155</v>
+      <c r="B16" s="36" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2875,10 +2883,12 @@
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="36" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
   <si>
     <t>PDP</t>
   </si>
@@ -366,9 +366,6 @@
     <t>PCM 1</t>
   </si>
   <si>
-    <t>Talon SRX/IMU</t>
-  </si>
-  <si>
     <t>LEDs w/ fuse</t>
   </si>
   <si>
@@ -381,24 +378,12 @@
     <t>Intake Deploy</t>
   </si>
   <si>
-    <t>Hook Deploy</t>
-  </si>
-  <si>
     <t>Double Acting Solenoid B</t>
   </si>
   <si>
     <t>Spinner Deploy</t>
   </si>
   <si>
-    <t>Servo</t>
-  </si>
-  <si>
-    <t>LimeLight Tilt</t>
-  </si>
-  <si>
-    <t>Beam Break</t>
-  </si>
-  <si>
     <t>RSL Light</t>
   </si>
   <si>
@@ -522,54 +507,18 @@
     <t>Toggle Intake</t>
   </si>
   <si>
-    <t>Boost/Winch</t>
-  </si>
-  <si>
     <t>Turret</t>
   </si>
   <si>
     <t>Spark Max - Neo</t>
   </si>
   <si>
-    <t>Victor SPX - Bag/Bag</t>
-  </si>
-  <si>
-    <t>Talon SRX - ?</t>
-  </si>
-  <si>
-    <t>Winch PTO</t>
-  </si>
-  <si>
-    <t>Talon FX - Falcon 500</t>
-  </si>
-  <si>
-    <t>Boost Index</t>
-  </si>
-  <si>
-    <t>Talon FX</t>
-  </si>
-  <si>
-    <t>PCM 2</t>
-  </si>
-  <si>
-    <t>PCM 3</t>
-  </si>
-  <si>
     <t>IR Range Finder</t>
   </si>
   <si>
-    <t>Victor SPX</t>
-  </si>
-  <si>
-    <t>Turret/Winch/IMU 0</t>
-  </si>
-  <si>
     <t>Intake</t>
   </si>
   <si>
-    <t>Victor SPX - ?</t>
-  </si>
-  <si>
     <t>HP Signal</t>
   </si>
   <si>
@@ -597,10 +546,34 @@
     <t>Cowl Pin</t>
   </si>
   <si>
-    <t>Normal Targeting</t>
-  </si>
-  <si>
-    <t>INNER Targeting</t>
+    <t>Talon SRX</t>
+  </si>
+  <si>
+    <t>Magazine/Spinner/IMU 0</t>
+  </si>
+  <si>
+    <t>PCM 0/Compressor</t>
+  </si>
+  <si>
+    <t>Talon SRX - Bag/Bag</t>
+  </si>
+  <si>
+    <t>Spark Max - Neo 550</t>
+  </si>
+  <si>
+    <t>Kicker/Climber</t>
+  </si>
+  <si>
+    <t>Hopper Flapper</t>
+  </si>
+  <si>
+    <t>Portcullis</t>
+  </si>
+  <si>
+    <t>PTO</t>
+  </si>
+  <si>
+    <t>Climber</t>
   </si>
 </sst>
 </file>
@@ -629,7 +602,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +633,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -843,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -874,16 +841,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,17 +872,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,16 +1253,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>0</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>40</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -1314,30 +1270,30 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
-      <c r="J3" s="33">
+      <c r="J3" s="31">
         <v>0</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="32">
         <v>0</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="36" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>40</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1345,100 +1301,100 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
-      <c r="J4" s="4">
+      <c r="J4" s="31">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="32">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>161</v>
+      <c r="L4" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>40</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="31">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="32">
         <v>2</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>111</v>
+      <c r="L5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>40</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="31">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="32">
         <v>3</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>109</v>
+      <c r="L6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>4</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>30</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1446,30 +1402,30 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="J7" s="4">
+      <c r="J7" s="31">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="32">
         <v>4</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>109</v>
+      <c r="L7" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>30</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -1477,314 +1433,326 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="J8" s="4">
+      <c r="J8" s="31">
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="32">
         <v>5</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="32">
+        <v>30</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="H9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" s="34">
+      <c r="L9" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="32">
         <v>30</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="C10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="32">
+        <v>7</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="32">
+        <v>20</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="32">
+        <v>5</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32">
+        <v>30</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="31">
+        <v>1</v>
+      </c>
+      <c r="K13" s="32">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>11</v>
+      </c>
+      <c r="B14" s="32">
+        <v>30</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="31">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>12</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="36" t="s">
+      <c r="B15" s="32">
+        <v>40</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="31">
+        <v>1</v>
+      </c>
+      <c r="K15" s="32">
+        <v>2</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>13</v>
+      </c>
+      <c r="B16" s="32">
+        <v>40</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="31">
+        <v>1</v>
+      </c>
+      <c r="K16" s="32">
+        <v>3</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>14</v>
+      </c>
+      <c r="B17" s="32">
+        <v>40</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="31">
+        <v>1</v>
+      </c>
+      <c r="K17" s="32">
+        <v>4</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>15</v>
+      </c>
+      <c r="B18" s="32">
+        <v>40</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="31">
+        <v>1</v>
+      </c>
+      <c r="K18" s="32">
+        <v>5</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>16</v>
+      </c>
+      <c r="B19" s="32">
+        <v>20</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="32">
         <v>6</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33">
-        <v>7</v>
-      </c>
-      <c r="B10" s="34">
-        <v>30</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="J10" s="33">
-        <v>0</v>
-      </c>
-      <c r="K10" s="34">
-        <v>7</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="36" t="s">
+      <c r="L19" s="33" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="33">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
-        <v>9</v>
-      </c>
-      <c r="B12" s="34">
-        <v>5</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>30</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="29">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
-        <v>30</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="29">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>40</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="29">
-        <v>2</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
-        <v>14</v>
-      </c>
-      <c r="B17" s="29">
-        <v>40</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>4</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
-        <v>15</v>
-      </c>
-      <c r="B18" s="29">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>5</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
-        <v>16</v>
-      </c>
-      <c r="B19" s="34">
-        <v>20</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>6</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="34" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -1799,46 +1767,50 @@
       <c r="D20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="31">
         <v>1</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="32">
         <v>7</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>18</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="36">
         <v>10</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="28">
         <v>1</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J22" s="30">
+      <c r="J22" s="28">
         <v>1</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1832,7 @@
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.77734375" customWidth="1"/>
     <col min="5" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.21875" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -1896,13 +1868,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1929,19 +1901,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>0</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -1949,13 +1921,13 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
-      <c r="M3" s="33">
+      <c r="M3" s="31">
         <v>0</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1963,34 +1935,29 @@
       <c r="A4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>17</v>
+      <c r="G4" s="34" t="s">
+        <v>166</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
-      <c r="M4" s="33">
+      <c r="M4" s="31">
         <v>1</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2001,13 +1968,13 @@
       <c r="B5" s="21"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="19" t="s">
@@ -2028,14 +1995,14 @@
       <c r="B6" s="21"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="47">
-        <v>3</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>165</v>
+      <c r="E6" s="31">
+        <v>10</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>6</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>40</v>
@@ -2055,27 +2022,27 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="47">
-        <v>4</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>166</v>
+      <c r="E7" s="31">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
-      <c r="M7" s="37">
+      <c r="M7" s="35">
         <v>4</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2086,14 +2053,14 @@
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="33">
-        <v>10</v>
-      </c>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="31">
+        <v>12</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>6</v>
+      <c r="G8" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>42</v>
@@ -2108,14 +2075,14 @@
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
-        <v>11</v>
-      </c>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="31">
+        <v>13</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>7</v>
+      <c r="G9" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>43</v>
@@ -2130,14 +2097,14 @@
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="33">
-        <v>12</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="31">
+        <v>14</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>8</v>
+      <c r="G10" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>44</v>
@@ -2152,14 +2119,14 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
-        <v>13</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="31">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>9</v>
+      <c r="G11" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>45</v>
@@ -2174,14 +2141,14 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="46">
-        <v>14</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>169</v>
+      <c r="E12" s="31">
+        <v>16</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>46</v>
@@ -2190,24 +2157,24 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="4">
-        <v>30</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>178</v>
+      <c r="E13" s="31">
+        <v>17</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>149</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>82</v>
@@ -2216,24 +2183,24 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="4">
-        <v>16</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="31">
+        <v>18</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>153</v>
+      <c r="G14" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>83</v>
@@ -2242,23 +2209,23 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="46">
-        <v>17</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="31">
+        <v>19</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>154</v>
       </c>
       <c r="I15" s="19" t="s">
@@ -2268,24 +2235,24 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="46">
-        <v>18</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
+      <c r="E16" s="31">
+        <v>20</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>85</v>
@@ -2297,21 +2264,21 @@
       <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>113</v>
+      <c r="B17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="46">
-        <v>19</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>170</v>
+      <c r="E17" s="31">
+        <v>21</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>86</v>
@@ -2323,21 +2290,17 @@
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="33">
-        <v>20</v>
-      </c>
-      <c r="F18" s="35" t="s">
+      <c r="E18" s="31">
+        <v>22</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>10</v>
+      <c r="G18" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>87</v>
@@ -2352,23 +2315,23 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
-        <v>21</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="E19" s="31">
+        <v>23</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="19" t="s">
+      <c r="G19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>152</v>
+      <c r="K19" s="34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2378,20 +2341,14 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="33">
-        <v>22</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="I20" s="19" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
@@ -2404,20 +2361,14 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
-        <v>23</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>13</v>
-      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="19" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>91</v>
@@ -2433,14 +2384,14 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>150</v>
+      <c r="J22" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2537,13 +2488,13 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="6"/>
@@ -2552,13 +2503,13 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="6"/>
@@ -2589,13 +2540,13 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6"/>
@@ -2610,7 +2561,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
@@ -2621,18 +2572,18 @@
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="6"/>
@@ -2641,13 +2592,13 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="6"/>
@@ -2684,16 +2635,6 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2706,7 +2647,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2717,217 +2658,213 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="46"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>173</v>
+      <c r="A11" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>177</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="B15" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>181</v>
+      <c r="B16" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>151</v>
+      <c r="A22" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>128</v>
+      <c r="A24" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="44"/>
+      <c r="A27" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="44"/>
+      <c r="A28" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="42"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>175</v>
+      <c r="A29" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>175</v>
+      <c r="A30" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -16,43 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Luke Scime</author>
-  </authors>
-  <commentList>
-    <comment ref="J20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Luke Scime:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-or ultrasonic range finder if lexan is transparent
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="183">
   <si>
     <t>PDP</t>
   </si>
@@ -321,15 +286,6 @@
     <t>REV Color Sensor V3</t>
   </si>
   <si>
-    <t>Ultrasonic Range Finder</t>
-  </si>
-  <si>
-    <t>Collision Avoidance</t>
-  </si>
-  <si>
-    <t>Guardrail</t>
-  </si>
-  <si>
     <t>UART</t>
   </si>
   <si>
@@ -495,9 +451,6 @@
     <t>Clear Errors</t>
   </si>
   <si>
-    <t>Turret Encoder</t>
-  </si>
-  <si>
     <t>Shooter 0</t>
   </si>
   <si>
@@ -513,9 +466,6 @@
     <t>Spark Max - Neo</t>
   </si>
   <si>
-    <t>IR Range Finder</t>
-  </si>
-  <si>
     <t>Intake</t>
   </si>
   <si>
@@ -574,32 +524,61 @@
   </si>
   <si>
     <t>Climber</t>
+  </si>
+  <si>
+    <t>Emergency Cowl Retract</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Initation Line</t>
+  </si>
+  <si>
+    <t>Close Trench</t>
+  </si>
+  <si>
+    <t>Far Trench</t>
+  </si>
+  <si>
+    <t>Targetting Computer</t>
+  </si>
+  <si>
+    <t>Tablet Override</t>
+  </si>
+  <si>
+    <t>Tablet Override/Climb Safety</t>
+  </si>
+  <si>
+    <t>Normal Mode</t>
+  </si>
+  <si>
+    <t>Rotation Control Mode</t>
+  </si>
+  <si>
+    <t>Position Control Mode</t>
+  </si>
+  <si>
+    <t>Climb Mode</t>
+  </si>
+  <si>
+    <t>Starting Tablet Override</t>
+  </si>
+  <si>
+    <t>Turret Azimuth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1260,7 +1239,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>6</v>
@@ -1277,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1291,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>7</v>
@@ -1308,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1322,7 +1301,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>8</v>
@@ -1343,10 +1322,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1357,7 +1336,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>9</v>
@@ -1366,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>19</v>
@@ -1378,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1392,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>10</v>
@@ -1409,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1423,7 +1402,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>11</v>
@@ -1440,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1454,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>12</v>
@@ -1463,7 +1442,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>19</v>
@@ -1475,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1489,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>13</v>
@@ -1506,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1520,7 +1499,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>17</v>
@@ -1572,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="31">
@@ -1585,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N13" s="6"/>
     </row>
@@ -1600,10 +1579,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="31">
@@ -1613,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>109</v>
       </c>
       <c r="N14" s="6"/>
     </row>
@@ -1628,10 +1607,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="31">
@@ -1641,10 +1620,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N15" s="6"/>
     </row>
@@ -1656,10 +1635,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="31">
@@ -1669,10 +1648,10 @@
         <v>3</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N16" s="6"/>
     </row>
@@ -1684,10 +1663,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J17" s="31">
         <v>1</v>
@@ -1696,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1710,10 +1689,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J18" s="31">
         <v>1</v>
@@ -1722,10 +1701,10 @@
         <v>5</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1748,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1765,7 +1744,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J20" s="31">
         <v>1</v>
@@ -1774,10 +1753,10 @@
         <v>7</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1818,11 +1797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>65</v>
@@ -1869,7 +1848,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>2</v>
@@ -1887,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>2</v>
@@ -1900,12 +1879,7 @@
       <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="31">
         <v>0</v>
@@ -1944,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>38</v>
@@ -1975,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>39</v>
@@ -2040,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O7" s="38" t="s">
         <v>19</v>
@@ -2104,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>44</v>
@@ -2126,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>45</v>
@@ -2148,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>46</v>
@@ -2164,7 +2138,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="31">
@@ -2174,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>82</v>
@@ -2187,20 +2161,20 @@
         <v>48</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="31">
         <v>18</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>83</v>
@@ -2209,15 +2183,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="6"/>
       <c r="E15" s="31">
         <v>19</v>
@@ -2226,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>84</v>
@@ -2235,15 +2205,11 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>78</v>
-      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="6"/>
       <c r="E16" s="31">
         <v>20</v>
@@ -2261,13 +2227,13 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="6"/>
@@ -2331,7 +2297,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2344,14 +2310,14 @@
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>91</v>
+      <c r="J20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2364,14 +2330,14 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>91</v>
+      <c r="J21" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2388,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2405,7 +2371,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="I23" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
@@ -2503,14 +2469,14 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>98</v>
+      <c r="C32" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
@@ -2544,7 +2510,7 @@
         <v>69</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>19</v>
@@ -2581,7 +2547,7 @@
         <v>73</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>19</v>
@@ -2596,7 +2562,7 @@
         <v>70</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>19</v>
@@ -2638,7 +2604,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2646,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,213 +2623,213 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B28" s="42"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2874,12 +2839,230 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="46"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="46"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="46"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="46"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="46"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="46"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="46"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="46"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="46"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="46"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="46"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="42"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="42"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89DB14-31DF-420F-B240-D087AF81FE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="11460" windowHeight="7704" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
   <si>
     <t>PDP</t>
   </si>
@@ -493,9 +499,6 @@
     <t>Cowl Piston</t>
   </si>
   <si>
-    <t>Cowl Pin</t>
-  </si>
-  <si>
     <t>Talon SRX</t>
   </si>
   <si>
@@ -517,15 +520,9 @@
     <t>Hopper Flapper</t>
   </si>
   <si>
-    <t>Portcullis</t>
-  </si>
-  <si>
     <t>PTO</t>
   </si>
   <si>
-    <t>Climber</t>
-  </si>
-  <si>
     <t>Emergency Cowl Retract</t>
   </si>
   <si>
@@ -566,12 +563,15 @@
   </si>
   <si>
     <t>Turret Azimuth</t>
+  </si>
+  <si>
+    <t>Climber Pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -789,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -855,6 +861,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,6 +890,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -918,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,9 +974,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,6 +1026,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1161,31 +1218,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="31">
         <v>0</v>
       </c>
@@ -1249,20 +1306,16 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
-      <c r="J3" s="31">
+      <c r="J3" s="51">
         <v>0</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="52">
         <v>0</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="21"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -1290,10 +1343,10 @@
         <v>103</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -1315,20 +1368,16 @@
       <c r="H5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="47">
         <v>0</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="48">
         <v>2</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>3</v>
       </c>
@@ -1360,10 +1409,10 @@
         <v>103</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -1391,10 +1440,10 @@
         <v>105</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -1412,20 +1461,16 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="J8" s="31">
+      <c r="J8" s="47">
         <v>0</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="48">
         <v>5</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>6</v>
       </c>
@@ -1457,10 +1502,10 @@
         <v>105</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -1478,20 +1523,16 @@
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
-      <c r="J10" s="31">
+      <c r="J10" s="51">
         <v>0</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="52">
         <v>7</v>
       </c>
-      <c r="L10" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L10" s="21"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>8</v>
       </c>
@@ -1517,7 +1558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -1543,7 +1584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>10</v>
       </c>
@@ -1551,7 +1592,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>102</v>
@@ -1567,11 +1608,11 @@
         <v>103</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>11</v>
       </c>
@@ -1579,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>147</v>
@@ -1599,7 +1640,7 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>12</v>
       </c>
@@ -1627,7 +1668,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>13</v>
       </c>
@@ -1638,7 +1679,7 @@
         <v>148</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="31">
@@ -1651,11 +1692,11 @@
         <v>103</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>14</v>
       </c>
@@ -1678,10 +1719,10 @@
         <v>105</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>15</v>
       </c>
@@ -1707,7 +1748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>16</v>
       </c>
@@ -1733,7 +1774,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1756,10 +1797,10 @@
         <v>105</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>18</v>
       </c>
@@ -1781,7 +1822,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J22" s="28">
         <v>1</v>
       </c>
@@ -1797,32 +1838,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" customWidth="1"/>
-    <col min="5" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.81640625" customWidth="1"/>
+    <col min="5" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6328125" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1875,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
@@ -1905,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>38</v>
       </c>
@@ -1918,7 +1959,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>38</v>
@@ -1935,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -1962,7 +2003,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>40</v>
       </c>
@@ -1989,7 +2030,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2083,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
@@ -2064,7 +2105,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
@@ -2086,7 +2127,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>45</v>
       </c>
@@ -2108,7 +2149,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
@@ -2130,7 +2171,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>47</v>
       </c>
@@ -2138,7 +2179,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="31">
@@ -2156,7 +2197,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>48</v>
       </c>
@@ -2171,10 +2212,10 @@
         <v>18</v>
       </c>
       <c r="F14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>159</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>160</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>83</v>
@@ -2182,7 +2223,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="45" t="s">
         <v>49</v>
       </c>
@@ -2204,7 +2245,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="45" t="s">
         <v>50</v>
       </c>
@@ -2226,7 +2267,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>51</v>
       </c>
@@ -2252,7 +2293,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2274,7 +2315,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -2300,7 +2341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>54</v>
       </c>
@@ -2320,7 +2361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
@@ -2340,7 +2381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
@@ -2360,7 +2401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
@@ -2376,7 +2417,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>58</v>
       </c>
@@ -2387,7 +2428,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>59</v>
       </c>
@@ -2398,7 +2439,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>60</v>
       </c>
@@ -2409,7 +2450,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
@@ -2420,7 +2461,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>62</v>
       </c>
@@ -2431,7 +2472,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>63</v>
       </c>
@@ -2442,7 +2483,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>64</v>
       </c>
@@ -2453,7 +2494,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>65</v>
       </c>
@@ -2468,7 +2509,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="45" t="s">
         <v>66</v>
       </c>
@@ -2483,7 +2524,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>67</v>
       </c>
@@ -2494,7 +2535,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>68</v>
       </c>
@@ -2505,7 +2546,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="39" t="s">
         <v>69</v>
       </c>
@@ -2520,7 +2561,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>71</v>
       </c>
@@ -2531,7 +2572,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>72</v>
       </c>
@@ -2542,7 +2583,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>73</v>
       </c>
@@ -2557,7 +2598,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="40" t="s">
         <v>70</v>
       </c>
@@ -2572,32 +2613,32 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2608,25 +2649,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2634,7 +2675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>96</v>
       </c>
@@ -2642,7 +2683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>99</v>
       </c>
@@ -2650,13 +2691,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="46"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>98</v>
       </c>
@@ -2664,7 +2705,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>110</v>
       </c>
@@ -2672,7 +2713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>112</v>
       </c>
@@ -2680,7 +2721,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>114</v>
       </c>
@@ -2688,13 +2729,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>137</v>
       </c>
@@ -2702,13 +2743,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="46"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>116</v>
       </c>
@@ -2716,7 +2757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>117</v>
       </c>
@@ -2724,7 +2765,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>121</v>
       </c>
@@ -2732,7 +2773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>122</v>
       </c>
@@ -2740,37 +2781,37 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>125</v>
       </c>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>136</v>
       </c>
@@ -2778,13 +2819,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>128</v>
       </c>
@@ -2792,31 +2833,31 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="42"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
         <v>133</v>
       </c>
@@ -2824,7 +2865,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
         <v>134</v>
       </c>
@@ -2838,25 +2879,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2864,137 +2905,137 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="46"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="46"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="46"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="45" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="46"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="46"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="45" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="46"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="46"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="46"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
         <v>125</v>
       </c>
       <c r="B19" s="46"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B20" s="46"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>136</v>
       </c>
@@ -3002,64 +3043,64 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>128</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="42"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="42"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
         <v>134</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89DB14-31DF-420F-B240-D087AF81FE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817009A-ABCA-4367-9DDB-1FD4AAD2CF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="183">
   <si>
     <t>PDP</t>
   </si>
@@ -262,9 +262,6 @@
     <t>Swerve Azimuth 3</t>
   </si>
   <si>
-    <t>Addressable LEDs</t>
-  </si>
-  <si>
     <t>Decorative LEDs</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>PCM 1</t>
   </si>
   <si>
-    <t>LEDs w/ fuse</t>
-  </si>
-  <si>
     <t>Magazine/Spinner</t>
   </si>
   <si>
@@ -463,9 +457,6 @@
     <t>Shooter 1</t>
   </si>
   <si>
-    <t>Toggle Intake</t>
-  </si>
-  <si>
     <t>Turret</t>
   </si>
   <si>
@@ -566,6 +557,21 @@
   </si>
   <si>
     <t>Climber Pin</t>
+  </si>
+  <si>
+    <t>Feeder Station Mode</t>
+  </si>
+  <si>
+    <t>Toggle Intake Deploy</t>
+  </si>
+  <si>
+    <t>Tether Pigtail</t>
+  </si>
+  <si>
+    <t>Blinkin LED Controller</t>
+  </si>
+  <si>
+    <t>LimeLight V2/Blinkin with fuse</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,12 +618,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -795,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -808,12 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -861,14 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1221,15 +1207,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
@@ -1239,17 +1225,17 @@
     <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1266,13 +1252,13 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1289,548 +1275,544 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>0</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <v>40</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="51">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="45">
         <v>0</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="46">
         <v>0</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="46"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>40</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="31">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="29">
         <v>0</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="30">
         <v>1</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0</v>
+      </c>
+      <c r="K5" s="46">
+        <v>2</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30">
+        <v>40</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30">
+        <v>3</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30">
+        <v>30</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>4</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="31">
+      <c r="M7" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="30">
+        <v>30</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="45">
+        <v>0</v>
+      </c>
+      <c r="K8" s="46">
+        <v>5</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="29">
+        <v>6</v>
+      </c>
+      <c r="B9" s="30">
+        <v>30</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>6</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30">
+        <v>30</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="J10" s="45">
+        <v>0</v>
+      </c>
+      <c r="K10" s="46">
+        <v>7</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30">
+        <v>20</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30">
+        <v>20</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30">
+        <v>30</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="30">
+        <v>30</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="29">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30">
+        <v>40</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="32">
+      <c r="L15" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="29">
+        <v>13</v>
+      </c>
+      <c r="B16" s="30">
         <v>40</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="C16" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="29">
+        <v>1</v>
+      </c>
+      <c r="K16" s="30">
+        <v>3</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="29">
+        <v>14</v>
+      </c>
+      <c r="B17" s="30">
+        <v>40</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="30">
+        <v>4</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="29">
+        <v>15</v>
+      </c>
+      <c r="B18" s="30">
+        <v>40</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="30">
+        <v>5</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="29">
+        <v>16</v>
+      </c>
+      <c r="B19" s="30">
+        <v>20</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="47">
-        <v>0</v>
-      </c>
-      <c r="K5" s="48">
-        <v>2</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="31">
-        <v>3</v>
-      </c>
-      <c r="B6" s="32">
-        <v>40</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30">
+        <v>6</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="29">
+        <v>17</v>
+      </c>
+      <c r="B20" s="30">
+        <v>20</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="29">
+        <v>1</v>
+      </c>
+      <c r="K20" s="30">
+        <v>7</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33">
+        <v>18</v>
+      </c>
+      <c r="B21" s="34">
+        <v>10</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="31">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
-        <v>3</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
-        <v>4</v>
-      </c>
-      <c r="B7" s="32">
-        <v>30</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="31">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32">
-        <v>4</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="31">
-        <v>5</v>
-      </c>
-      <c r="B8" s="32">
-        <v>30</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="47">
-        <v>0</v>
-      </c>
-      <c r="K8" s="48">
-        <v>5</v>
-      </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="31">
-        <v>6</v>
-      </c>
-      <c r="B9" s="32">
-        <v>30</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="32">
-        <v>6</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31">
-        <v>7</v>
-      </c>
-      <c r="B10" s="32">
-        <v>30</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="51">
-        <v>0</v>
-      </c>
-      <c r="K10" s="52">
-        <v>7</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
-        <v>8</v>
-      </c>
-      <c r="B11" s="32">
-        <v>20</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0</v>
-      </c>
-      <c r="K11" s="33" t="s">
+      <c r="J21" s="26">
+        <v>1</v>
+      </c>
+      <c r="K21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="31">
-        <v>9</v>
-      </c>
-      <c r="B12" s="32">
-        <v>5</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33" t="s">
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J22" s="26">
+        <v>1</v>
+      </c>
+      <c r="K22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
-        <v>10</v>
-      </c>
-      <c r="B13" s="32">
-        <v>30</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="31">
-        <v>1</v>
-      </c>
-      <c r="K13" s="32">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="31">
-        <v>11</v>
-      </c>
-      <c r="B14" s="32">
-        <v>30</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="31">
-        <v>1</v>
-      </c>
-      <c r="K14" s="32">
-        <v>1</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
-        <v>12</v>
-      </c>
-      <c r="B15" s="32">
-        <v>40</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="31">
-        <v>1</v>
-      </c>
-      <c r="K15" s="32">
-        <v>2</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
-        <v>13</v>
-      </c>
-      <c r="B16" s="32">
-        <v>40</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="31">
-        <v>1</v>
-      </c>
-      <c r="K16" s="32">
-        <v>3</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="31">
-        <v>14</v>
-      </c>
-      <c r="B17" s="32">
-        <v>40</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="31">
-        <v>1</v>
-      </c>
-      <c r="K17" s="32">
-        <v>4</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="31">
-        <v>15</v>
-      </c>
-      <c r="B18" s="32">
-        <v>40</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="31">
-        <v>1</v>
-      </c>
-      <c r="K18" s="32">
-        <v>5</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
-        <v>16</v>
-      </c>
-      <c r="B19" s="32">
-        <v>20</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="31">
-        <v>1</v>
-      </c>
-      <c r="K19" s="32">
-        <v>6</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="31">
-        <v>1</v>
-      </c>
-      <c r="K20" s="32">
-        <v>7</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35">
-        <v>18</v>
-      </c>
-      <c r="B21" s="36">
-        <v>10</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="28">
-        <v>1</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J22" s="28">
-        <v>1</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1859,21 +1841,21 @@
     <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.6328125" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1888,13 +1870,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1907,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>2</v>
@@ -1917,82 +1899,82 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>0</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
-      <c r="M3" s="31">
+      <c r="M3" s="29">
         <v>0</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>1</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
-      <c r="M4" s="31">
+      <c r="M4" s="29">
         <v>1</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="6"/>
@@ -2004,22 +1986,22 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <v>10</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="6"/>
@@ -2031,318 +2013,318 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>11</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
-      <c r="M7" s="35">
+      <c r="M7" s="33">
         <v>4</v>
       </c>
-      <c r="N7" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="38" t="s">
+      <c r="N7" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <v>12</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>13</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="31">
+      <c r="E10" s="29">
         <v>14</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="G10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <v>15</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="31">
+      <c r="E12" s="29">
         <v>16</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="G12" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>179</v>
+      <c r="C13" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <v>17</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>82</v>
+      <c r="G13" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>142</v>
+      <c r="B14" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <v>18</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>83</v>
+      <c r="F14" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <v>19</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>84</v>
+      <c r="G15" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="31">
+      <c r="E16" s="29">
         <v>20</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>85</v>
+      <c r="I16" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="31">
+      <c r="E17" s="29">
         <v>21</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>86</v>
+      <c r="I17" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="31">
+      <c r="E18" s="29">
         <v>22</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>87</v>
+      <c r="I18" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="31">
+      <c r="E19" s="29">
         <v>23</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="6"/>
@@ -2351,18 +2333,18 @@
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6"/>
@@ -2371,18 +2353,18 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="6"/>
@@ -2391,18 +2373,18 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="6"/>
@@ -2411,14 +2393,14 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
+      <c r="I23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="6"/>
@@ -2429,7 +2411,7 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="6"/>
@@ -2440,7 +2422,7 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="6"/>
@@ -2451,7 +2433,7 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="6"/>
@@ -2462,7 +2444,7 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="6"/>
@@ -2473,7 +2455,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="6"/>
@@ -2484,7 +2466,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="6"/>
@@ -2495,13 +2477,13 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="6"/>
@@ -2510,14 +2492,14 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>95</v>
+      <c r="B32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
@@ -2525,7 +2507,7 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="6"/>
@@ -2536,7 +2518,7 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="6"/>
@@ -2547,13 +2529,13 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6"/>
@@ -2562,7 +2544,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="6"/>
@@ -2573,7 +2555,7 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="6"/>
@@ -2584,13 +2566,13 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="6"/>
@@ -2599,13 +2581,13 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="6"/>
@@ -2652,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2663,214 +2645,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>139</v>
+      <c r="A1" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="34" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="34" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="46"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="46"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="B27" s="40"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="41" t="s">
+      <c r="B28" s="40"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="42"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>153</v>
+      <c r="B30" s="36" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2867,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2893,214 +2877,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>139</v>
+      <c r="A1" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B5" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="44"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="44"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="34" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="34" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="46"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="46"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="46"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="46"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="46"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="46"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="34" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="44"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="44"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="46"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="46"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="46"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="46"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="46"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
+      <c r="B27" s="40"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B28" s="40"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="42"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>178</v>
+      <c r="B30" s="36" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817009A-ABCA-4367-9DDB-1FD4AAD2CF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2014ED-8F2D-4C3B-AC82-CF97178427D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +618,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -795,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -861,6 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1823,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2154,14 +2161,8 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>176</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="29">
@@ -2184,10 +2185,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="29">
@@ -2228,11 +2229,15 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>140</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="29">
         <v>20</v>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2014ED-8F2D-4C3B-AC82-CF97178427D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E170C05-4FFE-41F2-88F3-9AC6AE67EBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1696,7 +1696,7 @@
         <v>145</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J17" s="29">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>145</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J18" s="29">
         <v>1</v>
@@ -1830,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E170C05-4FFE-41F2-88F3-9AC6AE67EBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC8F65-E2B1-48AB-BF1A-F83D6E4925D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC8F65-E2B1-48AB-BF1A-F83D6E4925D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A8DAC-1C1C-4B0B-A8AD-7DEAC7A46613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="184">
   <si>
     <t>PDP</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>LimeLight V2/Blinkin with fuse</t>
+  </si>
+  <si>
+    <t>Shooter Pre-Spin</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2639,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2733,10 +2736,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="32" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">

--- a/Hardware Interfaces 2020.xlsx
+++ b/Hardware Interfaces 2020.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Programming Projects\2020-Critical-Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A8DAC-1C1C-4B0B-A8AD-7DEAC7A46613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="186">
   <si>
     <t>PDP</t>
   </si>
@@ -575,12 +569,18 @@
   </si>
   <si>
     <t>Shooter Pre-Spin</t>
+  </si>
+  <si>
+    <t>Shooter RPM Bump Up</t>
+  </si>
+  <si>
+    <t>Shooter RPM Bump Down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,7 +937,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,26 +970,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,23 +1005,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1214,28 +1180,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1249,7 +1215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>0</v>
       </c>
@@ -1311,7 +1277,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="44"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -1342,7 +1308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>2</v>
       </c>
@@ -1373,7 +1339,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -1404,7 +1370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>4</v>
       </c>
@@ -1435,7 +1401,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -1462,7 +1428,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="44"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -1524,7 +1490,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="44"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -1550,7 +1516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -1576,7 +1542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -1604,7 +1570,7 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -1632,7 +1598,7 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>12</v>
       </c>
@@ -1660,7 +1626,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -1688,7 +1654,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -1714,7 +1680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>15</v>
       </c>
@@ -1740,7 +1706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="29">
         <v>16</v>
       </c>
@@ -1766,7 +1732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="29">
         <v>17</v>
       </c>
@@ -1814,7 +1780,7 @@
       <c r="L21" s="27"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="J22" s="26">
         <v>1</v>
       </c>
@@ -1830,29 +1796,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.81640625" customWidth="1"/>
-    <col min="5" max="6" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1869,7 +1835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -1938,7 +1904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -1968,7 +1934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
@@ -1995,7 +1961,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
@@ -2053,7 +2019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>42</v>
       </c>
@@ -2075,7 +2041,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
@@ -2097,7 +2063,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2085,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
@@ -2141,7 +2107,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
@@ -2163,7 +2129,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
         <v>47</v>
       </c>
@@ -2183,7 +2149,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>48</v>
       </c>
@@ -2209,7 +2175,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>49</v>
       </c>
@@ -2231,7 +2197,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>50</v>
       </c>
@@ -2257,7 +2223,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
@@ -2283,7 +2249,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>52</v>
       </c>
@@ -2305,7 +2271,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>53</v>
       </c>
@@ -2331,7 +2297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>54</v>
       </c>
@@ -2351,7 +2317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>55</v>
       </c>
@@ -2371,7 +2337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
@@ -2407,7 +2373,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>58</v>
       </c>
@@ -2418,7 +2384,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>59</v>
       </c>
@@ -2429,7 +2395,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>60</v>
       </c>
@@ -2440,7 +2406,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>61</v>
       </c>
@@ -2451,7 +2417,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>62</v>
       </c>
@@ -2462,7 +2428,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2439,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>64</v>
       </c>
@@ -2484,7 +2450,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>65</v>
       </c>
@@ -2499,7 +2465,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>66</v>
       </c>
@@ -2514,7 +2480,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
@@ -2525,7 +2491,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>68</v>
       </c>
@@ -2536,7 +2502,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>69</v>
       </c>
@@ -2551,7 +2517,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>71</v>
       </c>
@@ -2562,7 +2528,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>72</v>
       </c>
@@ -2573,7 +2539,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>73</v>
       </c>
@@ -2588,7 +2554,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="s">
         <v>70</v>
       </c>
@@ -2603,32 +2569,32 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2639,17 +2605,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2657,7 +2623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -2665,7 +2631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>95</v>
       </c>
@@ -2673,7 +2639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>98</v>
       </c>
@@ -2681,7 +2647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>96</v>
       </c>
@@ -2689,7 +2655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>97</v>
       </c>
@@ -2697,7 +2663,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>108</v>
       </c>
@@ -2705,7 +2671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>110</v>
       </c>
@@ -2713,7 +2679,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>112</v>
       </c>
@@ -2721,13 +2687,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>135</v>
       </c>
@@ -2735,7 +2701,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>136</v>
       </c>
@@ -2743,7 +2709,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>114</v>
       </c>
@@ -2751,7 +2717,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>115</v>
       </c>
@@ -2759,7 +2725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>119</v>
       </c>
@@ -2767,7 +2733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>120</v>
       </c>
@@ -2775,37 +2741,37 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
         <v>134</v>
       </c>
@@ -2813,13 +2779,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>126</v>
       </c>
@@ -2827,31 +2793,35 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="B25" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="40"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="40"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>131</v>
       </c>
@@ -2873,17 +2843,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2891,7 +2861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -2899,7 +2869,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>95</v>
       </c>
@@ -2907,7 +2877,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>98</v>
       </c>
@@ -2915,7 +2885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>96</v>
       </c>
@@ -2923,7 +2893,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>97</v>
       </c>
@@ -2931,43 +2901,43 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="44"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>110</v>
       </c>
       <c r="B8" s="44"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="44"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="44"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="44"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="44"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>114</v>
       </c>
@@ -2975,7 +2945,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>115</v>
       </c>
@@ -2983,13 +2953,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="44"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>120</v>
       </c>
@@ -2997,31 +2967,31 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="44"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="44"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="44"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="44"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>133</v>
       </c>
@@ -3029,7 +2999,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
         <v>134</v>
       </c>
@@ -3037,7 +3007,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
         <v>125</v>
       </c>
@@ -3045,7 +3015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>126</v>
       </c>
@@ -3053,7 +3023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
         <v>127</v>
       </c>
@@ -3061,7 +3031,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>128</v>
       </c>
@@ -3069,19 +3039,19 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="40"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="40"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>131</v>
       </c>
@@ -3089,7 +3059,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38" t="s">
         <v>132</v>
       </c>
